--- a/content/data/SyntheticGaussianCopula.xlsx
+++ b/content/data/SyntheticGaussianCopula.xlsx
@@ -4265,7 +4265,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>10.92</v>
+        <v>10.91</v>
       </c>
       <c r="B274" t="n">
         <v>8.699999999999999</v>

--- a/content/data/SyntheticGaussianCopula.xlsx
+++ b/content/data/SyntheticGaussianCopula.xlsx
@@ -4265,7 +4265,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>10.91</v>
+        <v>10.92</v>
       </c>
       <c r="B274" t="n">
         <v>8.699999999999999</v>
